--- a/video_links.xlsx
+++ b/video_links.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Test_py\Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12315"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Video Links" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Video Links" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,15 +408,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Video Links</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=g4d2osT8TXs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=b5GAJxoz0bE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=lPiQZ9CjKqU</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=X34knvBD2W4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=EqF8JXqhQ5g</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cFpDdqoYYMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=RvuI4xWSToE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-XJN4YSeU0I</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tS72QlSZB5w</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FXM0xGPaN2M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=KtPhP9QZpd4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9SQBtHlbZUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LxN4kdeQ5FY</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wAKx2UY2rUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iqS5Gj0tkwE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=0q69xPfGTvc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=i7V19eCZ3dw</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Y-1OCMWcA9k</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Nt9bNpuC7_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=n20QwBcKQC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mBMRFINCN_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mk_R8fFuugM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=s2B9Gnncu9E</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=F5d9Rsual00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=N94oJX7QKJ0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=HfDhX1mu8GE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YXdNQ8eYiC0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=n1HB0IC6DgA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5jKZXV3MbFw</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5HqGHuzc4gg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=If1d8w-3fWQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IUqWqi6kmNo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wi6htTbkLho</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UciZfHIWz4Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_bxBnrxw9uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tEsmDDykWc0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1OUx05PqwSo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sO8t_zhmwOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=EenPQgCHhaI</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IHwP8VPuuT4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=XKUaOReQHTQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UxAmV0ILqKM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Vo-MEeF1YbI</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=er-MRCuer3Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=0Gb9HZ6GWR0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fFXEm5Qgnzg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NE9Tx3yp66w</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vPcVl1pwGZ4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Ovdx7ggNq8I</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zgaTH8ll3aY</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5wAsEZFCwfw</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NTptpvBpjM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=O4HmbEbCT2c</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9WCtx4XYBXs</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7OViJOzIgX8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=m2i_0tgfyQI</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZSEONX7P2uA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-8yNDpZUdsQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rcAgDU-ESnI</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SG8V70MAqL0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NN2vcnUzVo4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iYkE1eoClB4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>